--- a/Ejercicios/Ejercicio-Sensibilidad.xlsx
+++ b/Ejercicios/Ejercicio-Sensibilidad.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programacion\Metodos\Ejercicios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Metodos\Ejercicios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDD82EC-A5B6-4ECF-8527-0320D5D325E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0CA25F-DB18-4A9C-BDF9-0DD3CAB8BCFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{CE180CFA-D277-4905-8B6F-B638CF6FD07F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{CE180CFA-D277-4905-8B6F-B638CF6FD07F}"/>
   </bookViews>
   <sheets>
     <sheet name="a)" sheetId="1" r:id="rId1"/>
@@ -745,8 +745,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="170" formatCode="0.00000000"/>
-    <numFmt numFmtId="173" formatCode="0.000000000"/>
+    <numFmt numFmtId="164" formatCode="0.00000000"/>
+    <numFmt numFmtId="165" formatCode="0.000000000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -1088,12 +1088,12 @@
   <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -1112,13 +1112,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1128,7 +1128,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1158,10 +1158,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1482,38 +1482,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E325CE-B531-4913-BAEF-9D29AF1A10EB}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1592,7 +1592,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1606,7 +1606,7 @@
       <c r="H10" s="12"/>
       <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1620,7 +1620,7 @@
       <c r="H11" s="12"/>
       <c r="I11" s="14"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1632,7 +1632,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1668,12 +1668,12 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -1681,12 +1681,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>93</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>94</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>18</v>
       </c>
@@ -1777,38 +1777,38 @@
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="2" max="2" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
@@ -1827,7 +1827,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
         <v>21</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>26</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>1E+30</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>28</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>1E+30</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="s">
         <v>30</v>
       </c>
@@ -1952,12 +1952,12 @@
         <v>1.9499999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
@@ -1976,7 +1976,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="5" t="s">
         <v>21</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>32</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>2249.9999999999995</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>34</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>1749.9999999999998</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>36</v>
       </c>
@@ -2101,7 +2101,7 @@
         <v>1233.3333333333333</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
         <v>38</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>1833.3333333333333</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
         <v>40</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>1633.3333333333333</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
         <v>42</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>1E+30</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
         <v>44</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>1E+30</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="2" t="s">
         <v>46</v>
       </c>
@@ -2285,34 +2285,34 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -2392,7 +2392,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>73</v>
       </c>
@@ -2476,7 +2476,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>74</v>
       </c>
@@ -2494,34 +2494,34 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2568,7 +2568,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>84</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>85</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>86</v>
       </c>
@@ -2646,7 +2646,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2670,7 +2670,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -2688,34 +2688,34 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -2797,7 +2797,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2811,7 +2811,7 @@
       <c r="H10" s="12"/>
       <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -2825,7 +2825,7 @@
       <c r="H11" s="12"/>
       <c r="I11" s="14"/>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>90</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2873,7 +2873,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -2891,24 +2891,24 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="57.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57.5546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>95</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -2985,7 +2985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>103</v>
       </c>
@@ -3003,7 +3003,7 @@
         <v>0.73333333333333328</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>104</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>0.53333333333333344</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>105</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>106</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="M10" s="25" t="s">
         <v>111</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="M11" s="23" t="s">
         <v>112</v>
       </c>
@@ -3066,11 +3066,11 @@
         <v>0.58333333333333326</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M12" s="12"/>
       <c r="N12" s="18"/>
     </row>
-    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3084,38 +3084,38 @@
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
@@ -3134,7 +3134,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
         <v>21</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>115</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>116</v>
       </c>
@@ -3228,7 +3228,7 @@
         <v>-1650</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>118</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>119</v>
       </c>
@@ -3299,7 +3299,7 @@
         <v>1750.0000000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>121</v>
       </c>
@@ -3333,7 +3333,7 @@
         <v>1233.3333333333335</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>123</v>
       </c>
@@ -3367,7 +3367,7 @@
         <v>1833.3333333333335</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>125</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v>1633.3333333333333</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="2" t="s">
         <v>127</v>
       </c>
@@ -3435,12 +3435,12 @@
         <v>1E+30</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
@@ -3459,7 +3459,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="5" t="s">
         <v>21</v>
       </c>
@@ -3482,7 +3482,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
         <v>129</v>
       </c>
@@ -3516,7 +3516,7 @@
         <v>1E+30</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -3550,7 +3550,7 @@
         <v>1E+30</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="2" t="s">
         <v>44</v>
       </c>

--- a/Ejercicios/Ejercicio-Sensibilidad.xlsx
+++ b/Ejercicios/Ejercicio-Sensibilidad.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Metodos\Ejercicios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programacion\metodos\Metodos\Ejercicios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0CA25F-DB18-4A9C-BDF9-0DD3CAB8BCFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1915AEBD-86D0-46C4-8A57-29D5402E97BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{CE180CFA-D277-4905-8B6F-B638CF6FD07F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CE180CFA-D277-4905-8B6F-B638CF6FD07F}"/>
   </bookViews>
   <sheets>
     <sheet name="a)" sheetId="1" r:id="rId1"/>
@@ -1166,8 +1166,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Bueno" xfId="1" builtinId="26"/>
+    <cellStyle name="Incorrecto" xfId="2" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1184,7 +1184,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1482,38 +1482,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E325CE-B531-4913-BAEF-9D29AF1A10EB}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1592,7 +1592,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1606,7 +1606,7 @@
       <c r="H10" s="12"/>
       <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1620,7 +1620,7 @@
       <c r="H11" s="12"/>
       <c r="I11" s="14"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1632,7 +1632,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1668,12 +1668,12 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -1681,12 +1681,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>93</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>94</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>18</v>
       </c>
@@ -1777,38 +1777,38 @@
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" customWidth="1"/>
-    <col min="2" max="2" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
@@ -1827,7 +1827,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>21</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>26</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>1E+30</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>28</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>1E+30</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>30</v>
       </c>
@@ -1952,12 +1952,12 @@
         <v>1.9499999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
@@ -1976,7 +1976,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
         <v>21</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>32</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>2249.9999999999995</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>34</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>1749.9999999999998</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>36</v>
       </c>
@@ -2101,7 +2101,7 @@
         <v>1233.3333333333333</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>38</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>1833.3333333333333</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>40</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>1633.3333333333333</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>42</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>1E+30</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>44</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>1E+30</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
         <v>46</v>
       </c>
@@ -2285,34 +2285,34 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -2392,7 +2392,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>73</v>
       </c>
@@ -2476,7 +2476,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>74</v>
       </c>
@@ -2494,34 +2494,34 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2568,7 +2568,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>84</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>85</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>86</v>
       </c>
@@ -2646,7 +2646,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2670,7 +2670,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -2688,34 +2688,34 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -2797,7 +2797,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2811,7 +2811,7 @@
       <c r="H10" s="12"/>
       <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -2825,7 +2825,7 @@
       <c r="H11" s="12"/>
       <c r="I11" s="14"/>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>90</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2873,7 +2873,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -2891,24 +2891,24 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>95</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -2985,7 +2985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>103</v>
       </c>
@@ -3003,7 +3003,7 @@
         <v>0.73333333333333328</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>104</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>0.53333333333333344</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>105</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>106</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M10" s="25" t="s">
         <v>111</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M11" s="23" t="s">
         <v>112</v>
       </c>
@@ -3066,11 +3066,11 @@
         <v>0.58333333333333326</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M12" s="12"/>
       <c r="N12" s="18"/>
     </row>
-    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3080,42 +3080,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F48A583F-03F4-4C80-A5C8-22E7E457F99E}">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" customWidth="1"/>
-    <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
@@ -3134,7 +3134,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>21</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>115</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>116</v>
       </c>
@@ -3228,7 +3228,7 @@
         <v>-1650</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>118</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>119</v>
       </c>
@@ -3299,7 +3299,7 @@
         <v>1750.0000000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>121</v>
       </c>
@@ -3333,7 +3333,7 @@
         <v>1233.3333333333335</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>123</v>
       </c>
@@ -3367,7 +3367,7 @@
         <v>1833.3333333333335</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>125</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v>1633.3333333333333</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>127</v>
       </c>
@@ -3435,12 +3435,12 @@
         <v>1E+30</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
@@ -3459,7 +3459,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="5" t="s">
         <v>21</v>
       </c>
@@ -3482,7 +3482,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>129</v>
       </c>
@@ -3516,7 +3516,7 @@
         <v>1E+30</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -3550,7 +3550,7 @@
         <v>1E+30</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
         <v>44</v>
       </c>
